--- a/ClanCompetitionStatistics/2025/2月/2025年2月联赛统计结果-水晶1.xlsx
+++ b/ClanCompetitionStatistics/2025/2月/2025年2月联赛统计结果-水晶1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\vue\template\ClanWarStatistics\ClanCompetitionStatistics\2025\2月\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24D5A4F-AD9C-4D9C-956E-C55CF94D97E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC09046-EACB-414C-9C4C-2C7069B3A26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>名称</t>
   </si>
@@ -152,13 +152,24 @@
   </si>
   <si>
     <t>清风 / 于世</t>
+  </si>
+  <si>
+    <t>色子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自愿放弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,8 +191,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +211,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -219,17 +243,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -530,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -551,9 +596,10 @@
     <col min="11" max="11" width="22.6640625" customWidth="1"/>
     <col min="12" max="12" width="27.5546875" customWidth="1"/>
     <col min="13" max="13" width="20.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="52.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,625 +639,667 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="N1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>7</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>7</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>7</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1</v>
+      </c>
+      <c r="N12" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>7</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>7</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1</v>
+      </c>
+      <c r="N13" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
         <v>0.1429</v>
       </c>
-      <c r="F3">
+      <c r="F14">
         <v>6</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G14" s="2">
         <v>0.85709999999999997</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>7</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
         <v>0.1429</v>
       </c>
-      <c r="F4">
+      <c r="F15">
         <v>6</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G15" s="2">
         <v>0.85709999999999997</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>7</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.42859999999999998</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.57140000000000002</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>7</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
         <v>0.1429</v>
       </c>
-      <c r="F6">
+      <c r="F16">
         <v>6</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G16" s="2">
         <v>0.85709999999999997</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>7</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.42859999999999998</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.57140000000000002</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>7</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>19</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.1429</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.85709999999999997</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.1429</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.85709999999999997</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>7</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.28570000000000001</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.71430000000000005</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>7</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.1429</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.85709999999999997</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>7</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.1429</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.1429</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.71430000000000005</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>7</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.28570000000000001</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.71430000000000005</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>7</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>7</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>7</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>7</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>7</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.28570000000000001</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.71430000000000005</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>7</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>28</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1249,10 +1337,11 @@
       <c r="M17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1261,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2">
-        <v>0</v>
+        <v>0.1429</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G18" s="2">
-        <v>1</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1279,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1290,10 +1379,11 @@
       <c r="M18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1302,16 +1392,16 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
+        <v>0.1429</v>
       </c>
       <c r="F19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19" s="2">
-        <v>1</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1331,10 +1421,11 @@
       <c r="M19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1372,10 +1463,11 @@
       <c r="M20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1413,10 +1505,11 @@
       <c r="M21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1425,16 +1518,16 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <v>0.1429</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G22" s="2">
-        <v>1</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1454,10 +1547,11 @@
       <c r="M22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1466,16 +1560,16 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
+        <v>0.1429</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G23" s="2">
-        <v>1</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1495,10 +1589,11 @@
       <c r="M23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1536,28 +1631,29 @@
       <c r="M24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>0</v>
+        <v>0.1429</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
+        <v>0.1429</v>
       </c>
       <c r="F25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G25" s="2">
-        <v>1</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1577,10 +1673,11 @@
       <c r="M25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1589,16 +1686,16 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G26" s="2">
-        <v>1</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1618,10 +1715,11 @@
       <c r="M26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1630,16 +1728,16 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="2">
-        <v>0.1429</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G27" s="2">
-        <v>0.85709999999999997</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1659,10 +1757,11 @@
       <c r="M27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1671,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28" s="2">
-        <v>0</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="F28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G28" s="2">
-        <v>1</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1700,10 +1799,11 @@
       <c r="M28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1712,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29" s="2">
-        <v>0</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G29" s="2">
-        <v>1</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1741,10 +1841,11 @@
       <c r="M29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1753,16 +1854,16 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" s="2">
-        <v>0</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G30" s="2">
-        <v>1</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1782,10 +1883,11 @@
       <c r="M30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1800,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -1812,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1823,8 +1925,9 @@
       <c r="M31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1864,8 +1967,12 @@
       <c r="M32" s="2">
         <v>1</v>
       </c>
+      <c r="N32" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N32">
+    <sortCondition descending="1" ref="N1:N32"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
